--- a/media/note/excel/电教部.xlsx
+++ b/media/note/excel/电教部.xlsx
@@ -400,30 +400,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>43528</v>
+        <v>43529</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>电教部测试设备类型</t>
+          <t>电教部测试类型5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>电教部测试设备型号</t>
+          <t>dfa123</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>电教部测试地点</t>
+          <t>教室</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
